--- a/src/test/resources/testdata/Excel.xlsx
+++ b/src/test/resources/testdata/Excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabah\eclipse-workspace\TestNGFramework5\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sabah\eclipse-workspace\CucumberFramework5\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446CF794-F120-419D-B88A-5C460831FA80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A1234D-CF40-4B04-894D-F541617F20DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36330" yWindow="1680" windowWidth="19260" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38430" yWindow="3750" windowWidth="16515" windowHeight="11730" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -62,13 +62,13 @@
     <t>MySecretPass@123</t>
   </si>
   <si>
-    <t>john202345</t>
-  </si>
-  <si>
-    <t>mary202345</t>
-  </si>
-  <si>
-    <t>david202345</t>
+    <t>johndoe2023456</t>
+  </si>
+  <si>
+    <t>marydoe2023456</t>
+  </si>
+  <si>
+    <t>daviddoe2023456</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
